--- a/biology/Médecine/Andrea_Alpago/Andrea_Alpago.xlsx
+++ b/biology/Médecine/Andrea_Alpago/Andrea_Alpago.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrea Alpago, né vers le milieu du XVe siècle à Belluno et mort en 1521 à Padoue, est un médecin et arabisant italien. Il est connu pour avoir retraduit en latin plusieurs textes médicaux d'Avicenne ainsi que le Petit Compendium de Yuhanna ibn Sarabiyun.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrea Alpago appartenait à une vieille famille de Belluno, les Bongaio, qui portaient depuis plusieurs générations le titre de comtes d'Alpago. Son père et son grand-père exerçaient la fonction de « notaire ». On conserve la mention de son admission dans le conseil des nobles de la cité le 12 mai 1479.
 Il apprit certainement la médecine à l'université de Padoue. Ensuite, pendant trente ans, de 1487 à 1517, il fut médecin attaché au consulat de Venise à Damas. Il mentionne comme son maître en médecine arabe un « Ebenmechi physicus inter omnes Arabes primarius » qui a été identifié comme le médecin damascène contemporain Shemseddin Mohammed ibn Mekki († 1531).
@@ -545,7 +559,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tous ses travaux furent publiés à titre posthume, notamment grâce aux bons soins de son neveu Paolo. Ce sont des traductions latines des textes arabes d'Avicenne et de Yuhanna ibn Sarabiyun visant à remédier aux graves défauts des traductions médiévales, notamment celles de Gérard de Crémone (mot-à-mot maladroit, simple emprunt de nombreux mots arabes). Ses traductions portent aussi sur d'importants commentateurs arabophones d'Avicenne (Qotboddin Shirazi, Ibn Nafis). Ce sont :
 Principis Avicennæ Liber Canonis (le Canon d'Avicenne) necnon De medicinis cordialibus et Canticum ab Andrea Bellunensi ex antiquis Arabum originalibus ingenti labore summaque diligentia correcti atque in integrum restituti una cum interpretatione nominum Arabicorum quæ partim mendosa partim incognita lectores antea ignorabant, Venise, Giunta, 1527, 1544, 1555 (avec l'ajout du Libellus Avicennæ de removendis nocumentis quæ accidunt in regimine sanitatis sive ex errore usus rerum naturalium et du Tractatus de syrupo acetoso), 1562, 1564, 1582, 1595, 1608 ; Bâle, 1556 (reproduction de la giuntina de 1555).
